--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/69_Sinop_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/69_Sinop_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38739772-39EB-4630-A4A9-2E08E686A9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02AF92B9-F4F6-4917-981D-60989E55CA6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="667" xr2:uid="{11233F88-B0CF-470D-9D17-B0C44EBB2BF9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="667" xr2:uid="{E2D66721-0FA2-43D3-BBCB-DED3B7F9775B}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -953,13 +953,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{D64F78A0-4970-4C55-B29E-EE81E70A4736}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{B5AF9BD3-CD33-4E8B-9728-E10F82EBD6EE}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{BD812A13-51C3-41B3-92E9-73131D3C2E6A}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{69037254-5D4D-453B-9F0D-AB0CA85ADB36}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{DED71914-2D58-418B-A74C-5119E4ED5CF1}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{BADEC679-48A5-4BE1-98C7-74F9428EE5AC}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{5569CBF3-8B36-47EC-9865-2C7D97E67576}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{4AC1F4B3-2DF0-4ED9-B96C-0C05B2A7EFFB}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{AF1874E2-DFDE-4994-91E6-A1F90FCED002}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{503EA23A-F4D7-47FD-A5C1-BCCED237FB24}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{C5F74893-CF02-4128-9461-DDFAFCE5C8DE}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{FE274910-31AA-420B-9B7D-EBCDFF857E39}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{8214F3B5-EB35-40AC-95EB-AB08C3488B4A}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{39E43D10-C232-433F-A446-B3D836D8621E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1329,7 +1329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D27A4BC-012A-4556-AABE-B305F2CC225A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EFA5747-6E3C-43C8-A877-3E57F9C50EBD}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -2537,18 +2537,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{94D48123-FA35-48B7-81B0-71AD214A60E4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{77EDE8C9-A4F3-463E-B313-BEEE914C1927}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A08B9758-641C-41E8-902E-79EDECB56C92}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4C70D3F1-024A-4BF5-B6FF-2779942BDFEE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{792DBAEB-7F7D-46A8-9C5B-CB49975AC338}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FCBDB184-187B-447C-9CC1-1E850C2AFF80}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0D528AF4-B7E7-4C61-84EB-86A75463D46F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6A1959AE-3E35-41C5-8251-1656672DEBF5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B8F809A0-8DB5-41C7-B005-FE5DEB7CB76A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{583FE374-CF1B-4165-A1A8-E955C024E48C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{532B8C86-C722-407A-BA5F-28338A36167A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FAF5DC99-4F2A-4E83-9293-B386290C5095}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{02912D5C-79E3-4229-8E03-FAE01C3766CB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D2DBEE0A-7B6B-459D-9AC8-CB1F982084B8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5C041DEC-3BE7-4228-8294-9C28A18BABEE}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{03F241A1-EFF0-4292-8ECC-54B5BE8C8D29}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{57BF2CB1-EC27-4D58-8564-73B3F528462A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D0386E6B-E51D-49D1-8C98-9D4910254CEA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CFE15B7D-402B-4862-92C4-BDDA1EEAE18A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{23F99C0C-86B8-478C-BB4C-FEAF06E05CE5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C3754D83-A29E-4C16-AAE9-E3005E674D11}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CFE87AAB-CA24-47C2-9E7D-16A34182E986}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F8483EF5-CBB8-43AC-B3D4-D679EEC59423}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FF4E803F-7BD3-4765-A955-9BA2E72964ED}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2561,7 +2561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C7F6E2-7059-413B-AB3D-9AFCF00FD135}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC5BD0C-51AA-476D-8B18-C701B908814D}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3757,18 +3757,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EEBA7439-E49D-4306-A770-21AA0A5F8AD3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ACE24C3C-E5B5-481A-A3D7-F2FEB6C278D3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E740C252-598E-4201-B668-376991DF1E48}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{959A9943-945D-4CB0-A72A-587C3C7B26E8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D4D877F9-9190-413B-9865-509BEFF33644}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{77FE05DB-C27C-471D-ACAD-BE00CB9DD4FE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FCE6E68C-3E1C-478A-9BCD-788A46A35678}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0255F1F8-9F1B-4311-A1CC-B32BA570B91C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DBB0F437-3423-4146-A8EB-BEEE853D29B8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{19664117-955B-4C0D-963C-A53FCC79E668}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3D3CD53A-944A-46E4-9BDB-D1B0BE5CB4D7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6784740A-4E6A-4F89-A7B3-D834DAEC2BE3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{626D747A-1192-4F9B-81D9-F3D00C32DE0D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6054B9F9-F03D-42A3-A56B-162746B29286}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{54D496B2-55FE-47C9-928C-001862E48562}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7EF1917C-FFE2-47E7-A839-D1B8E4CCDBFB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{49E713E2-18A0-409F-9783-215595076117}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5879884A-4783-4D34-89E9-9C86D2059F2A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0E82A39B-9592-4AF2-9BEF-342239DB7FCD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C351A60A-FEF7-42DD-9CE6-F05DD3E2B62A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E8226C68-FB35-44E3-A218-03E9B2462D7F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{61081F6B-181A-4D8B-A382-71C44FADAE3E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BEB60E38-8D25-4AF3-BA39-D60878550A1B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4F641A1E-5D38-473F-83D2-7807F6E7BB04}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3781,7 +3781,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E469FD3-9256-4CD7-8F89-619DE73F0AEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA03D6C5-70ED-4F24-B345-C119040D94E4}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -4977,18 +4977,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7BCB5321-4EDE-47DE-BB27-D4CD05790B4F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C7156834-E1A5-4EA5-9ED4-A370C4E03C23}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{16C0162B-CE54-423D-98CD-F824485E0DDA}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D361D97A-DE40-4751-86F6-E8D91DBA1B04}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1185EDDD-EEC9-4896-A739-B9EEABEFC391}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C2F37F9C-1996-464F-8541-E8F0CA633C47}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{992FA3D9-4FBA-4078-B73D-286408912158}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1FC42165-3C49-402E-9F71-D9E35C1A5070}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5EAF8F4C-FAEB-4D09-AFAA-AA4843E56300}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{791085BB-9823-4EB0-9554-6293ABC5CE1A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{320DE0FF-F502-4FEC-8A06-3FCAEC395F41}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FE0ECD51-489D-4C4D-BF34-61E6BCAC0001}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B55183A9-1DCB-4507-967B-0627F68BE885}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{870ECA90-5EA3-452C-989C-75A8A1F0B578}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D8CC0509-D7F0-4182-959F-B9C377AE7BEE}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8C848B46-61C2-46A8-ABFB-6E1F3D93DB01}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{75FBD973-08C5-4671-A6DA-F0CFDAD465A5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2FD589CD-8CA2-47A5-BB8F-D366F12EEF23}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{343F6F23-23F2-41D3-958F-1D78CD79CB3E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{091BA176-A536-47E6-B890-ED0E8F5C84ED}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{63D9121D-8150-4DD3-A7CB-3C437A658E3E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{462614F0-E331-47E4-8486-84C652200677}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A6A13FE8-37C5-4771-B5AA-3D45DFCC6DEB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9FB01EF9-A899-47C3-8EB3-103549EB77F7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5001,7 +5001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1A9F8F-87EA-41E1-A83E-8A7D74A7400F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F97E12-0839-4824-8EF9-2D4E2355B8CF}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6197,18 +6197,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8EE95FD4-49D2-44E3-9AC5-6C8BBBE1FA03}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{060C7CAA-B42D-483A-979B-4FF784CE4655}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{225268C4-3DEF-407A-89EC-EF9399A05E91}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0D65158F-17FA-4A71-BAC5-5509C65735D0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1865584A-8B24-434B-BC12-BC65A400D550}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E0B57048-09B0-4521-8DA6-1D77E13EF7BD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BE7C77B6-D902-4FA9-8FCB-7A6D5F620E28}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AAA95DED-753F-488E-94C4-6615FA138C49}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BD39FC2F-0CF9-44B0-85AF-D792BB8059E4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C9FD025A-5031-4052-87C6-C446CB1A75CA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4C6C0928-FA6C-411C-8F68-C9D8C1A80EFB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{697BE799-CD00-4993-871A-7E8780A1AE59}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B0E71D35-FA4B-4731-9333-F1A8BCE4E57D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{22986411-7508-4410-811C-D51BA2C70EEA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6D082109-FDA5-48F9-A696-BF2F8808EC68}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AC76FD96-B019-460A-A8AA-57D4D8464C95}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A85508BE-7687-4FE5-913A-80F4CE243A5B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{49D865AE-C344-428A-9A49-99E381E33688}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9A0FA825-8AD5-42FD-9122-734D98CF029B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E4D5E9D1-14AF-419D-8C14-68B54BFA5367}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{50C2FB86-73DB-4A55-A871-F580569F3BDF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4C312D6C-211C-4B14-A478-2F34483AB601}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{15FEAD91-7535-4EC5-8014-A8DC4FD8BB21}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{002602BD-FD29-4543-856C-DE284F8BEA8D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6221,7 +6221,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF7525B-79D6-485A-920C-512A1BCA99CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C372054-537C-442C-B0ED-641F3AED97EA}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -7429,18 +7429,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9CB6DAAE-AD6F-434A-830B-62B4E7939010}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0917FB29-FAF9-4C3E-AD24-C5250A420262}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FFFA4449-4BFC-4F1E-AAE3-3E438C32A1A0}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E4637AC4-0EAE-4F62-925B-B6A77A07923E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BB1159C0-BDC1-4264-8957-D535A0FB77A0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A569FC1F-E0C6-4987-A0DE-6C8738133046}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4850B880-1F59-45DE-B319-39A511E788D4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A884BE06-78A4-49C1-A77D-C8464AA9A107}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0869BFC9-CACD-4AD0-8FC4-503C5D212C9F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{007440FB-C961-42EE-86DC-994F89D3D653}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{840AD53B-8E03-4EA4-897D-F67ADC172D34}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A909196D-20CE-40BA-B636-5E6395F2B6E0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3A8D8D28-C75D-4B49-AE58-ED7F8EE3B464}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4D5EA003-E5D6-4935-8CBF-06678C93D538}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{450D4B5D-2E82-4DE4-8A43-F3F445D79D84}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{699A6395-CED5-46F9-82C8-C230C9EEA937}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F0FB9191-C602-498E-A1FE-74C40CEAE755}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BCD28A8D-336F-4B16-AFBB-4BA652A92241}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C2DED732-16BC-4792-800B-E1D0C0F12B2D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DE1D4ADB-A4EE-40A8-B26A-685B1FEBCACC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2BB7F202-7942-4C51-881A-C3959AD00BAC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CEA1A38A-78B4-41BD-9DCD-D09BEAA92EB8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2109405D-4F72-422C-95DD-A9EE0927E6A8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4B0B91DB-0207-49F9-8E88-739945738E01}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7453,7 +7453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2701BCD9-24FD-46F9-BE4A-F6B2C7AF7BE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3B432C-2F20-4FBF-B1EB-2D5DC122E2C7}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -8661,18 +8661,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8CC52F3D-6E59-4B6F-B59A-8F75E3F82506}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0771D5CD-B4DC-47B2-82B8-8C7AC749F338}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E14CB9F3-E0FC-4EE0-8678-DB77B338A728}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A31C201F-9C50-457F-8983-2F3C4B76F6D6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7409F631-E52B-4E57-89FE-917FF622BCF1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F4A75AA1-0F90-4931-81CB-DA275C3B2B1D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{999CA638-DA20-4695-A336-6C3C900BD92C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0D6465A5-879C-44CD-8E6F-9FA20842BE5B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6D2036CE-3CB3-48C7-8CA8-1EA21BCD6CEA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{052E3F6B-CB55-4007-9522-6F3E273EE4BE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D6C0DC98-92FE-48B0-9D7A-19986F93E9FC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B9C4657E-018C-4EEB-818C-322192CF94DB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A0F3443C-96F9-46CB-A408-0F35C518C827}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D5046198-4E1A-4CBA-B6D5-52A5FEB95379}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9A0FFAA1-989C-45ED-83AD-E56D3A77D9CE}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{48B6D260-4B0A-4B65-B945-D986663C73CE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B621E635-290B-4FC2-BC5B-77D8F3103D22}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{750D35BA-857F-4CCB-9422-6C62E1FC66BA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3FDB1DCE-E122-4793-BF39-ABC8E8BB1D99}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5D3AB4A2-CC10-440B-89BB-45A995C5ACC7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B62C2E2A-FBDE-40D7-8970-B8B2D2EEB7B8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F2F9C3FB-1212-4A82-B370-470DE4459D33}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8E70A35D-32C7-4BC0-8FF5-C0FF03E45182}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AE4FBD16-ADD4-4AE1-AA15-FA820E2CC0AA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8685,7 +8685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F269A0CC-2C6E-4AE8-B775-85ED3E13F7B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83101B48-4551-46C6-9CAF-3C96CF5682D0}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -9893,18 +9893,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{46DAB417-3DD7-45C0-ABC6-3628D9B0F8B5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AD18A682-7227-4C7D-BA7C-C6CBB734D8D7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4D6246D0-910F-4B38-AE97-8BF92B4FE372}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A23ED0D1-0703-4663-9FE3-A6DB0C682158}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4F14C8A1-2962-4626-8402-BFC326E73D39}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0AF4ED7B-E57B-4F61-8F45-ECBEA569E5BF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F8DD05B6-ABAF-4A97-BBC4-B665AE37A524}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{36A3FAC6-547F-4043-BB42-822B52589940}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CDB3D08A-EB81-4FC0-A1D0-CA4FC1C7AD48}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0BC98CE2-0774-4AF8-A176-EF9E31298A66}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{74137B87-9A8B-4306-A58E-B5C118F320FC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C1CBC522-B208-4C44-A88E-FD815BDEDB18}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{153A7295-F751-4B5D-B95A-E9CE0310E1A1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3B836038-3631-4E8C-B48A-4A7FFE23B615}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AF5F5C55-A0C4-46B4-94D7-143D8CF19505}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A7731CD4-0718-4A40-AADC-AB1BECB7EDB1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7ED0B188-C7D6-4887-99C2-CF61FE73A228}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FB465102-7A68-4718-9B41-6BD67D5AF08F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{38071687-3376-43BF-9B2C-676AEE788F6B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{72197558-20C7-49EC-9D4C-A68EAE579DE0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5B4A4E3A-13E3-4100-8F7C-FE28635D7632}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E595DBEC-B97F-4FA3-B779-E7D119CCFA2D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A6F71F25-DA8C-48D0-94AB-B3734A3FA24C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2E8DC7EE-812E-48AF-81EE-722F8CF01F71}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9917,7 +9917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC7502D6-17E9-4C2B-AE6F-740AF92F9502}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B21AE67-39DD-4C89-973C-D9FB6C46C7F7}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -11121,18 +11121,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A534952B-F42D-4C06-984A-16F55469648F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{75EF79EA-E923-49FB-AE28-C2F660AD5EF5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2D51BB48-19C2-4CE6-8E1C-675BB3C59C61}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7BB9034C-66D1-4FC2-9889-C1DE68B28CDB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B0CFA528-8889-4AAE-A0CE-3D2AB12FDF75}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F5255886-AECD-4075-8E48-74F67D702A12}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{61787927-AFE4-49E3-B93C-14E6A85FFD55}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F73EF80A-9F14-45DB-B30B-744CC5F76155}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{08923A54-D997-4C3E-B7B5-D3892FE10E72}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9D5344BE-43C7-4CA7-B98C-95A3536BCC7E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1C9721B1-8765-4BBA-825C-D88CAE2C01EC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B8152EC7-7DF0-4071-85B0-4C27E4110D47}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2AE5F290-BB03-47B7-9762-B9BB91D7AF7B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E03E6C92-604D-4CC9-AB3D-7243FBFB84E9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5EE1DE78-7250-474C-9F77-51C4F07268C7}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{ECA631D9-139D-44BF-A924-928BA7C67F36}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9F2DADE8-D49F-46D5-9EB1-D35BD329D667}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E28610ED-1011-4DFB-B9C2-2B7C1DC9AC1A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{498DE83F-419A-483C-9828-DF596F03572F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1404F04E-9024-4704-8A93-EBA24AC613A6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9DC8645B-2B6E-4EF6-BA0E-005DEE217A2B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AAB28827-FDBC-4A4A-A343-21FC63051CFB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B0BC5AA4-CE8D-41D4-B9AD-44154E50E772}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{58408C78-0CFD-4972-90EF-99D81BC1A986}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11145,7 +11145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D40C87-BAAA-439D-B64E-E86590F4C525}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E058A3-6BBF-4D59-8B75-CFC45E5C27AD}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -12341,18 +12341,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DAE4C1FD-02E7-47B8-8AF4-25180A730111}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{275C8C03-6FDE-4B2A-AA6E-D8E1D0171F47}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CFC5EEEA-D9C7-4F4F-ADF0-B2CD6FD42C4E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F870A2F1-6542-4B1C-958E-B1ED5B4E219A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CD987917-6D56-4AE1-9B22-A56CE6F236FD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E8AEB255-6096-49C1-B8F9-B80422ECE3E8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4FFA070B-82AF-458C-ABF1-9EF1EA85DAE1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2D262D7B-A764-403A-B11A-C7783AF588B2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BDEA58E0-73BC-4924-81C7-EA7C3D038E03}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C2ED991D-EB0A-45EC-90B0-3048BE845359}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CF2ADD0B-8E9E-4065-A192-05E3D8B6582E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B8647DF9-A2CD-4DE1-A9E2-936A42CBC87F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{35CA023D-73FD-434B-B0F6-D717B9B793A6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C5CAE055-74A3-4360-BECB-926CF4923601}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CF136203-06B0-44A4-9F01-706F1086ADF4}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5E19F0FE-B10D-4376-8F85-100B6A8DD67E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DCEA5C7D-EC66-4912-AC6B-5C364A88DF82}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A429BDFF-DE42-4C81-8EBC-C189DED9FA26}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{37D0F27B-D0FA-4080-97EE-CE1A09F056E9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{89B5EC28-3094-4DED-AFED-EEB5C2DE8339}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E5652244-2ED1-4003-AB25-ABA1B5F05CFE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{686FCBD5-C728-44CA-96FA-CFD3C1ED153C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6953B6A7-3848-4037-B95B-4F8BD2CFEE8E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E0FBF8B9-E1E7-458B-91CE-B74BB6C312BB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12365,7 +12365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A55BD1-A1A1-4831-B4E1-312A285D79D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8EF96B2-2CBE-47EA-B18B-45ED8A509BF0}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -13561,18 +13561,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7E65A57D-EA0F-4C85-8A43-7D0384765930}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{874265E2-3CF1-4663-9041-28AAFF8A6561}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7F887313-6F38-4F32-964C-E9ADC1C0D204}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{519389E8-DEF9-49B9-A13B-5E8BED67061B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DE298DF4-469D-4EB1-AADE-E6A97FFA4FE7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4E615665-1C2C-4420-B6B9-6EFA2372B79F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{21A209E5-5EFA-413D-A03D-BCE8303F7CC5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C4B74C8D-7DE3-41B5-AE9E-8E311622DE61}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{114D198F-6CA6-4952-8F2C-81E88FC8D58D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{80F5E996-3D17-4705-8A76-19336D92E396}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{382C8303-3BC2-429E-8BA1-5A273610532C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{28C2D6A2-F13F-455E-A361-1994D172E38A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{10365ACD-B345-4F41-AF77-6FEDA7CDA2EB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C9E34B1D-97D3-49A6-B5A9-93232A598BCF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C5AF156A-67F0-4850-90E3-8A7A84ECE560}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2449A351-DC06-484E-A91C-C18C13A03DAC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2E5E6F6D-8359-4F01-987D-7B31D61A47F5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{565CCA75-4835-49D3-8C39-FDE638A49F5A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{45549470-6E53-4646-9CFB-5A43DE15E592}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B555D2FF-0A04-4A45-ACDA-DB5C2DA5F551}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BDA15FBA-33F0-439C-A442-D1C7FEF1AB3A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{724137B2-7F87-4885-866C-B07B50D239C6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{14D25BBB-ABBD-48EC-A691-E7ABD921D691}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3AAEB4B7-2C96-4DDA-B73F-95FAB9D85408}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13585,7 +13585,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDAA03E0-AA80-401F-9568-E6CB44F27064}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B4707C7-E9D1-4C66-AD35-37DE02BA7F0F}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -14781,18 +14781,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9F1BC7C5-46D0-4652-B960-FC1758792EB9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6D3EC86A-B16E-43FA-8D0E-23A18397B3E6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8D61AA5E-E631-43E9-A93F-62A53F2BBEA4}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B590EB70-C8EA-44D5-8021-E9C38106CDC5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8C695327-D1E7-451D-94B1-0F937EA7A9A1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D2A55581-EBA7-4688-BCF2-337AD8702E6D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9504D2CF-92CC-46DF-A422-5DF06CF574FB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C20423A5-F0AE-4AF6-9919-0F31E77BA710}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{784296E6-7787-4E0E-82CB-E7F7CBF59E59}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{95A02D01-D3BC-443F-8A7C-3FE5A6A9771E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F3EE7F7C-9E74-42AB-BCD9-629E6735A857}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{47AD8664-060B-4B50-BF98-CF4B30F9889C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{41BD900D-4010-4046-BE07-6EF6BC449119}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5CE30222-9490-4766-BD79-03FFBFD922D8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0004BF0A-86C1-4665-B9F5-D597783F484D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3541306A-1EDD-488B-9894-AC795ECC1B60}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4DF2A703-9487-4934-8B73-57AA1EA09964}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E0BC3A23-6F70-405A-958A-C8055720B057}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A533928F-8924-4998-89B2-79AFE4A77A0C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5D4F6FA8-ED3B-4B5E-BB41-C9EADDB13E06}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A6C3A805-0E53-4749-AAC3-578F020BA05F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3962D999-B3A6-402A-A4C2-D0C686DBEC1C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5C0E111B-0D1C-41E0-8B04-0888F144F1BD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DF7D1401-19E1-4DC9-812E-6628FBEB5760}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14805,7 +14805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E1DF0B-409D-4F90-9846-BE8D8FF23C15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4794E5F7-3919-4C05-92B3-4BCD92D23243}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -16001,18 +16001,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6C1BB34F-ED08-4CDE-80A4-726DC2E3A44A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CDA600E6-242D-4179-B993-A2C65153CE39}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{98647C91-FC3F-4C07-A9DB-E9F4DB9E6990}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1FB27CCF-3B47-4934-97D6-0D0EB3E8C3BA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{47A53B38-9C22-4382-AB31-6F42A9EFF12B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{50FA8D8D-0D70-483E-BDF4-3B548A212606}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B5D8D7FB-4E2E-4CA3-8C99-954834C8A3A2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{671244C9-AE05-4DE5-AC9D-D62D575139FF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D358FB48-3306-40B1-A496-6EA7B235F794}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E3C5B136-A07E-4AA2-93E3-308359390A71}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6C6181F8-C7B6-41F3-89D1-FA5E621D4E03}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E28603CC-4197-4AC9-B8D7-B4ED8B3AF010}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{890FE634-DDF5-4516-880B-A1EF6BB9A6BF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3BD8C816-3DAC-45B3-AD42-048E4316595D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{474F24BB-7284-424B-973B-910B333DD575}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6C6237CC-3E72-4C20-91E2-A5AB3CB27FDA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{02B85D37-F944-419C-A7B3-F831576D2A90}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FFD06CBF-D8C5-4F62-83E6-3FA43BC3C28D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3DBDC859-7616-4B90-B578-88B1F2F2DF1B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E870E331-BC08-43FB-A874-5C384E51CFD3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D385AE75-1EA5-4F8F-A670-E038859214F4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{557C47A9-6A02-466B-A633-6747799D0D63}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C09799F1-06BA-4516-AFA4-0030566158BB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6B171E97-8E1F-4450-A35A-B0CD9FAA01BD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
